--- a/service-provider-profile-service/src/main/resources/Seed_Ideas2.xlsx
+++ b/service-provider-profile-service/src/main/resources/Seed_Ideas2.xlsx
@@ -139,7 +139,7 @@
     <t xml:space="preserve">Maya</t>
   </si>
   <si>
-    <t xml:space="preserve">Web developer</t>
+    <t xml:space="preserve">Web Developer</t>
   </si>
   <si>
     <t xml:space="preserve">HTML, Bootstrap, PHP</t>
@@ -711,7 +711,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
